--- a/data-raw/it_us/us/american_comunity_survey_2018/households/to_select.xlsx
+++ b/data-raw/it_us/us/american_comunity_survey_2018/households/to_select.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/extractus/data-raw/american_comunity_survey_2018/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/covid19census/data-raw/it_us/us/american_comunity_survey_2018/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559F20C-84D9-0143-BBE7-907F2C34651F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60F0553-050E-6B48-AE44-866BBDF20884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to_select" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>percent_estimate_educational_attainment_population_25_years_and_over_9th_to_12th_grade_no_diploma</t>
   </si>
   <si>
-    <t>perc_edu_highshool</t>
-  </si>
-  <si>
     <t>percent_estimate_educational_attainment_population_25_years_and_over_high_school_graduate_includes_equivalency</t>
   </si>
   <si>
@@ -322,15 +319,9 @@
     <t>percent_estimate_educational_attainment_population_25_years_and_over_graduate_or_professional_degree</t>
   </si>
   <si>
-    <t>perc_edu_highshool_higher</t>
-  </si>
-  <si>
     <t>percent_estimate_educational_attainment_population_25_years_and_over_high_school_graduate_or_higher</t>
   </si>
   <si>
-    <t>perc_edu_batchelor_higher</t>
-  </si>
-  <si>
     <t>percent_estimate_educational_attainment_population_25_years_and_over_bachelors_degree_or_higher</t>
   </si>
   <si>
@@ -518,6 +509,15 @@
   </si>
   <si>
     <t>percent_estimate_computers_and_internet_use_total_households_with_a_broadband_internet_subscription</t>
+  </si>
+  <si>
+    <t>perc_edu_bachelor_higher</t>
+  </si>
+  <si>
+    <t>perc_edu_highschool</t>
+  </si>
+  <si>
+    <t>perc_edu_highschool_higher</t>
   </si>
 </sst>
 </file>
@@ -1360,12 +1360,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="206" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="64.1640625" customWidth="1"/>
     <col min="2" max="2" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1731,306 +1732,306 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
